--- a/UseCase.xlsx
+++ b/UseCase.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\Hochschule\Semester IV\Webbasierte Datenbankanwendungen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <author>Samii, Mandana</author>
   </authors>
   <commentList>
-    <comment ref="G16" authorId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Use Case Name:</t>
   </si>
@@ -186,14 +191,7 @@
     <t>Secondary Role (optional):</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Ia</t>
-  </si>
-  <si>
-    <t>Ib</t>
   </si>
   <si>
     <t>Tip</t>
@@ -237,52 +235,49 @@
     </r>
   </si>
   <si>
-    <t>Mitarbeiter einpflegen</t>
-  </si>
-  <si>
     <t>Franz-Walther</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Ich möchte verschiedene Daten zu einzelnen Mitarbeiter einplfegen und speichern können, sodass zu jedem Mitarbeiter ein eigener Datensatz entsteht</t>
-  </si>
-  <si>
     <t>Ein neuer Mitarbeiter wird eingestellt, bzw. Eigenschaften des Mitarbeiters ändern sich. Diese Daten müssen eingepflegt werden.</t>
   </si>
   <si>
-    <t>Der zu pflegende Mitarbeiter muss im Unternehmen vorhanden sein</t>
-  </si>
-  <si>
     <t>Um dem Mitarbeiter künftige Fort- und Weiterbildungsmaßnahmen zuordnen zu können, muss er in der Datenbank vorhanden sein.</t>
   </si>
   <si>
     <t>Anwendung für Fort- &amp; Weiterbildungsmaßnahmen</t>
   </si>
   <si>
-    <t>Fortbildungsantrag ist im System eingegangen</t>
-  </si>
-  <si>
-    <t>User prüft den Antrag auf inhaltlicher Vollständigkeit &amp; formale Korrektheit</t>
-  </si>
-  <si>
-    <t>Antrag wird als korrekt markiert</t>
-  </si>
-  <si>
-    <t>F3a: Antrag wird als nicht korrekt markiert und an den Antragssteller zurückgesandt</t>
-  </si>
-  <si>
-    <t>User sucht das angegebene Seminar aus der Datenbank heraus und ordnet es dem Antragssteller zu</t>
-  </si>
-  <si>
-    <t>A.4a: Seminar ist noch nicht in der Datenbank vorhanden und muss (neu) angelegt werden. (anderer Use-Case)</t>
+    <t>User prüft, ob der Mitarbeiter bereits vorhanden ist.</t>
+  </si>
+  <si>
+    <t>System zeigt Treffer, basierend auf den eingegebenen Suchkriterien, an.</t>
+  </si>
+  <si>
+    <t>Abhängig vom Suchergebnis, pflegt der User einen neuen Mitarbeiter ein, oder bearbeitet die Eigenschaften eines bestehenden Mitarbeiters.</t>
+  </si>
+  <si>
+    <t>System speichert neuen Mitarbeiter, bzw abgeänderte Eigenschaften ab.</t>
+  </si>
+  <si>
+    <t>Sachbearbeiter in der Personalentwicklung</t>
+  </si>
+  <si>
+    <t>Ich möchte verschiedene Daten zu einzelnen Mitarbeiter einpflegen und speichern können, sodass zu jedem Mitarbeiter ein eigener Datensatz entsteht</t>
+  </si>
+  <si>
+    <t>Der zu pflegende Mitarbeiter muss im Unternehmen vorhanden sein.</t>
+  </si>
+  <si>
+    <t>Mitarbeiter einpflegen/bearbeiten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -562,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -650,64 +645,98 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF996792"/>
@@ -738,25 +767,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5448300" y="6057900"/>
-          <a:ext cx="1095375" cy="847725"/>
+        <a:xfrm>
+          <a:off x="5572125" y="6562725"/>
+          <a:ext cx="1114425" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -788,75 +823,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:colOff>57152</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448300" y="6943725"/>
-          <a:ext cx="1123950" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5448301" y="7762875"/>
-          <a:ext cx="1104899" cy="866775"/>
+          <a:off x="5581652" y="7096125"/>
+          <a:ext cx="1066798" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -900,7 +891,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -935,202 +932,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>675082</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="190502" y="7258050"/>
-          <a:ext cx="484580" cy="2543175"/>
-          <a:chOff x="200027" y="7972425"/>
-          <a:chExt cx="484580" cy="2752728"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="Group 31"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="466725" y="8601075"/>
-            <a:ext cx="217882" cy="1495425"/>
-            <a:chOff x="1724025" y="4800600"/>
-            <a:chExt cx="342900" cy="1562100"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="33" name="Straight Connector 32"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="1724025" y="6362700"/>
-              <a:ext cx="342900" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="996792"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="38" name="Straight Connector 37"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="1733550" y="4800600"/>
-              <a:ext cx="0" cy="1562100"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="996792"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="39" name="Straight Connector 38"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="1724025" y="4810125"/>
-              <a:ext cx="342900" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="996792"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="none"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="TextBox 39"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="16200000">
-            <a:off x="-1053702" y="9226154"/>
-            <a:ext cx="2752728" cy="245269"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1000">
-                <a:latin typeface="BentonSans Regular" panose="02000503000000020004" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t>&lt;Reason for Iteration&gt;</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1146,7 +947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1155,7 +962,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1177,206 +984,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="10325100"/>
-          <a:ext cx="1057275" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="9067800"/>
-          <a:ext cx="1038225" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5448301" y="9420225"/>
-          <a:ext cx="1104899" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5448302" y="11287125"/>
-          <a:ext cx="1085848" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="996792"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1087213</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -1390,7 +997,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Rectangle 63"/>
+        <xdr:cNvPr id="64" name="Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1450,7 +1063,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3075" name="Picture 3"/>
+        <xdr:cNvPr id="3075" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000030C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1502,7 +1121,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1552,7 +1177,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1602,7 +1233,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1652,7 +1289,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1702,7 +1345,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1715,7 +1364,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="Group 6"/>
+          <xdr:cNvPr id="7" name="Group 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1728,7 +1383,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="9" name="Straight Connector 8"/>
+            <xdr:cNvPr id="9" name="Straight Connector 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1763,7 +1424,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="10" name="Straight Connector 9"/>
+            <xdr:cNvPr id="10" name="Straight Connector 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1798,7 +1465,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="11" name="Straight Connector 10"/>
+            <xdr:cNvPr id="11" name="Straight Connector 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1836,7 +1509,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1919,7 +1598,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1928,7 +1613,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1963,7 +1648,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1972,7 +1663,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2007,7 +1698,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2016,7 +1713,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2051,7 +1748,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2101,7 +1804,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2151,7 +1860,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2201,7 +1916,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2261,7 +1982,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2288,9 +2015,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2328,9 +2055,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2362,9 +2089,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2396,9 +2141,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2571,20 +2334,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="1"/>
@@ -2597,7 +2359,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2609,17 +2371,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2636,34 +2398,34 @@
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52">
+      <c r="C4" s="55"/>
+      <c r="D4" s="44">
         <v>1</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="9.9499999999999993" customHeight="1">
@@ -2680,98 +2442,98 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:15">
@@ -2788,20 +2550,20 @@
     </row>
     <row r="14" spans="1:15" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2891,21 +2653,21 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="B22" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2917,43 +2679,32 @@
       <c r="I23" s="25"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="21" t="s">
-        <v>35</v>
-      </c>
+      <c r="E24" s="21"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="30">
-        <v>1</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="29"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="27" thickTop="1" thickBot="1">
+    <row r="25" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="12"/>
       <c r="B25" s="26">
-        <v>2</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="D25" s="27"/>
-      <c r="E25" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="7"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:10" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33"/>
@@ -2961,10 +2712,10 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="30">
-        <v>3</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="4"/>
@@ -2972,239 +2723,178 @@
     <row r="27" spans="1:10" ht="39.75" thickTop="1" thickBot="1">
       <c r="A27" s="31"/>
       <c r="B27" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="7"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="28" spans="1:10" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="12"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="33" t="s">
-        <v>54</v>
-      </c>
+      <c r="C28" s="33"/>
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="29" spans="1:10" ht="44.25" customHeight="1" thickTop="1">
       <c r="A29" s="31"/>
-      <c r="B29" s="26">
-        <v>6</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="27"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="25"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="32"/>
-      <c r="I29" s="25"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="12"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="30">
-        <v>7</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="29"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="31"/>
-      <c r="B31" s="26">
-        <v>8</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="27"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="25"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="65.25" thickTop="1" thickBot="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="12"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="30">
-        <v>9</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="29"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" thickTop="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="31"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="31"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="89.25" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
+  <mergeCells count="22">
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G14:I14"/>
@@ -3217,6 +2907,14 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
@@ -3229,14 +2927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3255,7 +2953,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" ht="59.25">
       <c r="A1" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3267,17 +2965,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3294,34 +2992,34 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
@@ -3338,96 +3036,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -3444,20 +3142,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3480,7 +3178,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -3549,24 +3247,24 @@
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -3580,10 +3278,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="6"/>
       <c r="E24" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="30">
         <v>1</v>
@@ -3596,7 +3294,7 @@
     </row>
     <row r="25" spans="1:10" ht="21.75" thickTop="1" thickBot="1">
       <c r="A25" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="26">
         <v>2</v>
@@ -3758,28 +3456,28 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="89.25" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
@@ -3844,15 +3542,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="G22:I22"/>
@@ -3869,6 +3558,15 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
